--- a/SolutionItems/Notes/Index Income Calculation.xlsx
+++ b/SolutionItems/Notes/Index Income Calculation.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Projects\GitHub\forCrowd\WealthEconomy\SolutionItems\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9435"/>
   </bookViews>
   <sheets>
-    <sheet name="Calculation" sheetId="2" r:id="rId1"/>
+    <sheet name="Aggressive" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>%</t>
   </si>
@@ -397,22 +397,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.77734375" style="2" customWidth="1"/>
-    <col min="4" max="7" width="13.77734375" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="15" width="13.77734375" style="2" customWidth="1"/>
-    <col min="16" max="20" width="10.6640625" customWidth="1"/>
+    <col min="1" max="3" width="13.7109375" style="2" customWidth="1"/>
+    <col min="4" max="7" width="13.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="15" width="13.7109375" style="2" customWidth="1"/>
+    <col min="16" max="20" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -435,32 +435,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>100</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="e">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2">
         <f>B3/$B$8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
         <f>1-J3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
         <f>K3/$K$7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
         <f>$A$8*L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
         <f>A3+M3</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -469,32 +469,32 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>100</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="e">
+        <v>15</v>
+      </c>
+      <c r="J4" s="2">
         <f>B4/$B$8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
         <f>1-J4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
         <f>K4/$K$7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
         <f>$A$8*L4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
         <f>A4+M4</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -503,32 +503,32 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>100</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="e">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
         <f>B5/$B$8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="2" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K5" s="2">
         <f>1-J5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="2" t="e">
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="L5" s="2">
         <f>K5/$K$7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="3" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="3">
         <f>$A$8*L5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="3" t="e">
+        <v>20</v>
+      </c>
+      <c r="N5" s="3">
         <f>A5+M5</f>
-        <v>#DIV/0!</v>
+        <v>120</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -537,32 +537,32 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>100</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="e">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2">
         <f>B6/$B$8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="2" t="e">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K6" s="2">
         <f>1-J6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="2" t="e">
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="L6" s="2">
         <f>K6/$K$7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="3" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="3">
         <f>$A$8*L6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="3" t="e">
+        <v>20</v>
+      </c>
+      <c r="N6" s="3">
         <f>A6+M6</f>
-        <v>#DIV/0!</v>
+        <v>120</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -571,35 +571,35 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>SUM(A3:A6)</f>
         <v>400</v>
       </c>
-      <c r="K7" s="2" t="e">
+      <c r="K7" s="2">
         <f>SUM(K3:K6)</f>
-        <v>#DIV/0!</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>A7*0.1</f>
         <v>40</v>
       </c>
       <c r="B8" s="2">
         <f>MAX(B3:B6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -621,18 +621,24 @@
       <c r="L11" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>100</v>
       </c>
       <c r="B12" s="2">
         <f>B3</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="e">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
         <f>B12/$B$17</f>
-        <v>#DIV/0!</v>
+        <v>0.3</v>
       </c>
       <c r="D12" s="2" t="e">
         <f>C12/C16</f>
@@ -646,48 +652,48 @@
         <f>C12/C16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="2" t="e">
+      <c r="H12" s="2">
         <f>1-C12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="2" t="e">
+        <v>0.7</v>
+      </c>
+      <c r="I12" s="2">
         <f>H12/$H$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="2" t="e">
+        <v>0.87499999999999989</v>
+      </c>
+      <c r="J12" s="2">
         <f>H12/$H$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="2" t="e">
+        <v>0.87499999999999989</v>
+      </c>
+      <c r="K12" s="2">
         <f>1-J12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="2" t="e">
+        <v>0.12500000000000011</v>
+      </c>
+      <c r="L12" s="2">
         <f>K12/$K$16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="3" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="3">
         <f>$A$17*L12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="3" t="e">
+        <v>20</v>
+      </c>
+      <c r="N12" s="3">
         <f>A12+M12</f>
-        <v>#DIV/0!</v>
+        <v>120</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>100</v>
       </c>
       <c r="B13" s="2">
         <f>B4</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="e">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
         <f>B13/$B$17</f>
-        <v>#DIV/0!</v>
+        <v>0.3</v>
       </c>
       <c r="D13" s="2" t="e">
         <f>C13/C16</f>
@@ -701,48 +707,48 @@
         <f>C13/C16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="2" t="e">
+      <c r="H13" s="2">
         <f>1-C13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="2" t="e">
+        <v>0.7</v>
+      </c>
+      <c r="I13" s="2">
         <f>H13/$H$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="2" t="e">
+        <v>0.87499999999999989</v>
+      </c>
+      <c r="J13" s="2">
         <f>H13/$H$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="2" t="e">
+        <v>0.87499999999999989</v>
+      </c>
+      <c r="K13" s="2">
         <f>1-J13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="2" t="e">
+        <v>0.12500000000000011</v>
+      </c>
+      <c r="L13" s="2">
         <f>K13/$K$16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="3" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="3">
         <f>$A$17*L13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="3" t="e">
+        <v>20</v>
+      </c>
+      <c r="N13" s="3">
         <f>A13+M13</f>
-        <v>#DIV/0!</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>100</v>
       </c>
       <c r="B14" s="2">
         <f>B5</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="e">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
         <f>B14/$B$17</f>
-        <v>#DIV/0!</v>
+        <v>0.2</v>
       </c>
       <c r="D14" s="2" t="e">
         <f>C14/C16</f>
@@ -756,48 +762,48 @@
         <f>C14/C16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="2" t="e">
+      <c r="H14" s="2">
         <f>1-C14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="2" t="e">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="2">
         <f>H14/$H$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
         <f>H14/$H$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
         <f>1-J14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
         <f>K14/$K$16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <f>$A$17*L14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <f>A14+M14</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>100</v>
       </c>
       <c r="B15" s="2">
         <f>B6</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="e">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2">
         <f>B15/$B$17</f>
-        <v>#DIV/0!</v>
+        <v>0.2</v>
       </c>
       <c r="D15" s="2" t="e">
         <f>C15/C17</f>
@@ -811,38 +817,38 @@
         <f>C15/C17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="2" t="e">
+      <c r="H15" s="2">
         <f>1-C15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="2" t="e">
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="2">
         <f>H15/$H$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
         <f>H15/$H$17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K15" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
         <f>1-J15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
         <f>K15/$K$16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <f>$A$17*L15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="3" t="e">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <f>A15+M15</f>
-        <v>#DIV/0!</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>SUM(A12:A15)</f>
         <v>400</v>
@@ -851,28 +857,28 @@
         <f>SUM(D12:D14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="2" t="e">
+      <c r="K16" s="2">
         <f>SUM(K12:K15)</f>
-        <v>#DIV/0!</v>
+        <v>0.25000000000000022</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f>A16*0.1</f>
         <v>40</v>
       </c>
       <c r="B17" s="2">
         <f>SUM(B12:B15)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="e">
+        <v>50</v>
+      </c>
+      <c r="H17" s="2">
         <f>MAX(H12:H15)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>

--- a/SolutionItems/Notes/Index Income Calculation.xlsx
+++ b/SolutionItems/Notes/Index Income Calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9432"/>
   </bookViews>
   <sheets>
     <sheet name="Aggressive" sheetId="2" r:id="rId1"/>
@@ -393,26 +393,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="13.7109375" style="2" customWidth="1"/>
-    <col min="4" max="7" width="13.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="15" width="13.7109375" style="2" customWidth="1"/>
-    <col min="16" max="20" width="10.7109375" customWidth="1"/>
+    <col min="1" max="3" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="7" width="13.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="15" width="13.6640625" style="2" customWidth="1"/>
+    <col min="16" max="20" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -435,32 +437,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>100</v>
       </c>
       <c r="B3" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J3" s="2">
         <f>B3/$B$8</f>
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="K3" s="2">
         <f>1-J3</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="L3" s="2">
         <f>K3/$K$7</f>
-        <v>0</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="M3" s="3">
         <f>$A$8*L3</f>
-        <v>0</v>
+        <v>16.470588235294116</v>
       </c>
       <c r="N3" s="3">
         <f>A3+M3</f>
-        <v>100</v>
+        <v>116.47058823529412</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -469,32 +471,32 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>100</v>
       </c>
       <c r="B4" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J4" s="2">
         <f>B4/$B$8</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K4" s="2">
         <f>1-J4</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="L4" s="2">
         <f>K4/$K$7</f>
-        <v>0</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="M4" s="3">
         <f>$A$8*L4</f>
-        <v>0</v>
+        <v>14.117647058823531</v>
       </c>
       <c r="N4" s="3">
         <f>A4+M4</f>
-        <v>100</v>
+        <v>114.11764705882354</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -503,32 +505,32 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>100</v>
       </c>
       <c r="B5" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J5" s="2">
         <f>B5/$B$8</f>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="2">
         <f>1-J5</f>
-        <v>0.33333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="L5" s="2">
         <f>K5/$K$7</f>
-        <v>0.5</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="M5" s="3">
         <f>$A$8*L5</f>
-        <v>20</v>
+        <v>9.4117647058823533</v>
       </c>
       <c r="N5" s="3">
         <f>A5+M5</f>
-        <v>120</v>
+        <v>109.41176470588235</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -537,32 +539,32 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>100</v>
       </c>
       <c r="B6" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J6" s="2">
         <f>B6/$B$8</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2">
         <f>1-J6</f>
-        <v>0.33333333333333337</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
         <f>K6/$K$7</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M6" s="3">
         <f>$A$8*L6</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N6" s="3">
         <f>A6+M6</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -571,35 +573,35 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f>SUM(A3:A6)</f>
         <v>400</v>
       </c>
       <c r="K7" s="2">
         <f>SUM(K3:K6)</f>
-        <v>0.66666666666666674</v>
+        <v>2.125</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f>A7*0.1</f>
         <v>40</v>
       </c>
       <c r="B8" s="2">
         <f>MAX(B3:B6)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -628,17 +630,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
+        <f>A3</f>
         <v>100</v>
       </c>
       <c r="B12" s="2">
         <f>B3</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2">
         <f>B12/$B$17</f>
-        <v>0.3</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="D12" s="2" t="e">
         <f>C12/C16</f>
@@ -654,46 +657,47 @@
       </c>
       <c r="H12" s="2">
         <f>1-C12</f>
-        <v>0.7</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="I12" s="2">
         <f>H12/$H$17</f>
-        <v>0.87499999999999989</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2">
         <f>H12/$H$17</f>
-        <v>0.87499999999999989</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2">
         <f>1-J12</f>
-        <v>0.12500000000000011</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
         <f>K12/$K$16</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <f>$A$17*L12</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
         <f>A12+M12</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
+        <f>A4</f>
         <v>100</v>
       </c>
       <c r="B13" s="2">
         <f>B4</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
         <f>B13/$B$17</f>
-        <v>0.3</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="D13" s="2" t="e">
         <f>C13/C16</f>
@@ -709,46 +713,47 @@
       </c>
       <c r="H13" s="2">
         <f>1-C13</f>
-        <v>0.7</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="I13" s="2">
         <f>H13/$H$17</f>
-        <v>0.87499999999999989</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J13" s="2">
         <f>H13/$H$17</f>
-        <v>0.87499999999999989</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="K13" s="2">
         <f>1-J13</f>
-        <v>0.12500000000000011</v>
+        <v>7.1428571428571397E-2</v>
       </c>
       <c r="L13" s="2">
         <f>K13/$K$16</f>
-        <v>0.5</v>
+        <v>9.0909090909090884E-2</v>
       </c>
       <c r="M13" s="3">
         <f>$A$17*L13</f>
-        <v>20</v>
+        <v>3.6363636363636354</v>
       </c>
       <c r="N13" s="3">
         <f>A13+M13</f>
-        <v>120</v>
+        <v>103.63636363636364</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
+        <f>A5</f>
         <v>100</v>
       </c>
       <c r="B14" s="2">
         <f>B5</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2">
         <f>B14/$B$17</f>
-        <v>0.2</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="D14" s="2" t="e">
         <f>C14/C16</f>
@@ -764,46 +769,47 @@
       </c>
       <c r="H14" s="2">
         <f>1-C14</f>
-        <v>0.8</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="I14" s="2">
         <f>H14/$H$17</f>
-        <v>1</v>
+        <v>0.78571428571428581</v>
       </c>
       <c r="J14" s="2">
         <f>H14/$H$17</f>
-        <v>1</v>
+        <v>0.78571428571428581</v>
       </c>
       <c r="K14" s="2">
         <f>1-J14</f>
-        <v>0</v>
+        <v>0.21428571428571419</v>
       </c>
       <c r="L14" s="2">
         <f>K14/$K$16</f>
-        <v>0</v>
+        <v>0.27272727272727265</v>
       </c>
       <c r="M14" s="3">
         <f>$A$17*L14</f>
-        <v>0</v>
+        <v>10.909090909090907</v>
       </c>
       <c r="N14" s="3">
         <f>A14+M14</f>
-        <v>100</v>
+        <v>110.90909090909091</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
+        <f>A6</f>
         <v>100</v>
       </c>
       <c r="B15" s="2">
         <f>B6</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
         <f>B15/$B$17</f>
-        <v>0.2</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="D15" s="2" t="e">
         <f>C15/C17</f>
@@ -819,36 +825,36 @@
       </c>
       <c r="H15" s="2">
         <f>1-C15</f>
-        <v>0.8</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="I15" s="2">
         <f>H15/$H$17</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J15" s="2">
         <f>H15/$H$17</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K15" s="2">
         <f>1-J15</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L15" s="2">
         <f>K15/$K$16</f>
-        <v>0</v>
+        <v>0.63636363636363646</v>
       </c>
       <c r="M15" s="3">
         <f>$A$17*L15</f>
-        <v>0</v>
+        <v>25.45454545454546</v>
       </c>
       <c r="N15" s="3">
         <f>A15+M15</f>
-        <v>100</v>
+        <v>125.45454545454547</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f>SUM(A12:A15)</f>
         <v>400</v>
@@ -859,28 +865,66 @@
       </c>
       <c r="K16" s="2">
         <f>SUM(K12:K15)</f>
-        <v>0.25000000000000022</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f>A16*0.1</f>
         <v>40</v>
       </c>
       <c r="B17" s="2">
         <f>SUM(B12:B15)</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H17" s="2">
         <f>MAX(H12:H15)</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2">
+        <f>A23/A19</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <f>A24/A20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2">
+        <f>A25/A21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <f>SUM(A19:A22)</f>
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SolutionItems/Notes/Index Income Calculation.xlsx
+++ b/SolutionItems/Notes/Index Income Calculation.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,27 +442,27 @@
         <v>100</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
         <f>B3/$B$8</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
         <f>1-J3</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
         <f>K3/$K$7</f>
-        <v>0.41176470588235292</v>
+        <v>0.8</v>
       </c>
       <c r="M3" s="3">
         <f>$A$8*L3</f>
-        <v>16.470588235294116</v>
+        <v>32</v>
       </c>
       <c r="N3" s="3">
         <f>A3+M3</f>
-        <v>116.47058823529412</v>
+        <v>132</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -476,27 +476,27 @@
         <v>100</v>
       </c>
       <c r="B4" s="2">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="J4" s="2">
         <f>B4/$B$8</f>
-        <v>0.25</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="K4" s="2">
         <f>1-J4</f>
-        <v>0.75</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="L4" s="2">
         <f>K4/$K$7</f>
-        <v>0.35294117647058826</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="M4" s="3">
         <f>$A$8*L4</f>
-        <v>14.117647058823531</v>
+        <v>5.3333333333333321</v>
       </c>
       <c r="N4" s="3">
         <f>A4+M4</f>
-        <v>114.11764705882354</v>
+        <v>105.33333333333333</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -510,27 +510,27 @@
         <v>100</v>
       </c>
       <c r="B5" s="2">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="J5" s="2">
         <f>B5/$B$8</f>
-        <v>0.5</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="K5" s="2">
         <f>1-J5</f>
-        <v>0.5</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="L5" s="2">
         <f>K5/$K$7</f>
-        <v>0.23529411764705882</v>
+        <v>6.6666666666666693E-2</v>
       </c>
       <c r="M5" s="3">
         <f>$A$8*L5</f>
-        <v>9.4117647058823533</v>
+        <v>2.6666666666666679</v>
       </c>
       <c r="N5" s="3">
         <f>A5+M5</f>
-        <v>109.41176470588235</v>
+        <v>102.66666666666667</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -544,7 +544,7 @@
         <v>100</v>
       </c>
       <c r="B6" s="2">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="J6" s="2">
         <f>B6/$B$8</f>
@@ -580,7 +580,7 @@
       </c>
       <c r="K7" s="2">
         <f>SUM(K3:K6)</f>
-        <v>2.125</v>
+        <v>1.25</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -593,7 +593,7 @@
       </c>
       <c r="B8" s="2">
         <f>MAX(B3:B6)</f>
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -632,16 +632,16 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <f>A3</f>
+        <f t="shared" ref="A12:B15" si="0">A3</f>
         <v>100</v>
       </c>
       <c r="B12" s="2">
-        <f>B3</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
         <f>B12/$B$17</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="e">
         <f>C12/C16</f>
@@ -657,7 +657,7 @@
       </c>
       <c r="H12" s="2">
         <f>1-C12</f>
-        <v>0.93333333333333335</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2">
         <f>H12/$H$17</f>
@@ -688,16 +688,16 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <f>A4</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="B13" s="2">
-        <f>B4</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="C13" s="2">
         <f>B13/$B$17</f>
-        <v>0.13333333333333333</v>
+        <v>0.30303030303030304</v>
       </c>
       <c r="D13" s="2" t="e">
         <f>C13/C16</f>
@@ -713,47 +713,47 @@
       </c>
       <c r="H13" s="2">
         <f>1-C13</f>
-        <v>0.8666666666666667</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="I13" s="2">
         <f>H13/$H$17</f>
-        <v>0.9285714285714286</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="J13" s="2">
         <f>H13/$H$17</f>
-        <v>0.9285714285714286</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="K13" s="2">
         <f>1-J13</f>
-        <v>7.1428571428571397E-2</v>
+        <v>0.30303030303030298</v>
       </c>
       <c r="L13" s="2">
         <f>K13/$K$16</f>
-        <v>9.0909090909090884E-2</v>
+        <v>0.30303030303030304</v>
       </c>
       <c r="M13" s="3">
         <f>$A$17*L13</f>
-        <v>3.6363636363636354</v>
+        <v>12.121212121212121</v>
       </c>
       <c r="N13" s="3">
         <f>A13+M13</f>
-        <v>103.63636363636364</v>
+        <v>112.12121212121212</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <f>A5</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="B14" s="2">
-        <f>B5</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>110</v>
       </c>
       <c r="C14" s="2">
         <f>B14/$B$17</f>
-        <v>0.26666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D14" s="2" t="e">
         <f>C14/C16</f>
@@ -769,47 +769,47 @@
       </c>
       <c r="H14" s="2">
         <f>1-C14</f>
-        <v>0.73333333333333339</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="I14" s="2">
         <f>H14/$H$17</f>
-        <v>0.78571428571428581</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="J14" s="2">
         <f>H14/$H$17</f>
-        <v>0.78571428571428581</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="K14" s="2">
         <f>1-J14</f>
-        <v>0.21428571428571419</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="L14" s="2">
         <f>K14/$K$16</f>
-        <v>0.27272727272727265</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M14" s="3">
         <f>$A$17*L14</f>
-        <v>10.909090909090907</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="N14" s="3">
         <f>A14+M14</f>
-        <v>110.90909090909091</v>
+        <v>113.33333333333333</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <f>A6</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="B15" s="2">
-        <f>B6</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="C15" s="2">
         <f>B15/$B$17</f>
-        <v>0.53333333333333333</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="D15" s="2" t="e">
         <f>C15/C17</f>
@@ -825,31 +825,31 @@
       </c>
       <c r="H15" s="2">
         <f>1-C15</f>
-        <v>0.46666666666666667</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="I15" s="2">
         <f>H15/$H$17</f>
-        <v>0.5</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="J15" s="2">
         <f>H15/$H$17</f>
-        <v>0.5</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="K15" s="2">
         <f>1-J15</f>
-        <v>0.5</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="L15" s="2">
         <f>K15/$K$16</f>
-        <v>0.63636363636363646</v>
+        <v>0.3636363636363637</v>
       </c>
       <c r="M15" s="3">
         <f>$A$17*L15</f>
-        <v>25.45454545454546</v>
+        <v>14.545454545454549</v>
       </c>
       <c r="N15" s="3">
         <f>A15+M15</f>
-        <v>125.45454545454547</v>
+        <v>114.54545454545455</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="S15" s="3"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="K16" s="2">
         <f>SUM(K12:K15)</f>
-        <v>0.78571428571428559</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -877,11 +877,11 @@
       </c>
       <c r="B17" s="2">
         <f>SUM(B12:B15)</f>
-        <v>30</v>
+        <v>330</v>
       </c>
       <c r="H17" s="2">
         <f>MAX(H12:H15)</f>
-        <v>0.93333333333333335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">

--- a/SolutionItems/Notes/Index Income Calculation.xlsx
+++ b/SolutionItems/Notes/Index Income Calculation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Aggressive" sheetId="2" r:id="rId1"/>
@@ -393,28 +393,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.6640625" style="2" customWidth="1"/>
-    <col min="4" max="7" width="13.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="15" width="13.6640625" style="2" customWidth="1"/>
-    <col min="16" max="20" width="10.6640625" customWidth="1"/>
+    <col min="1" max="3" width="13.7109375" style="2" customWidth="1"/>
+    <col min="4" max="7" width="13.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="15" width="13.7109375" style="2" customWidth="1"/>
+    <col min="16" max="20" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -437,7 +437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <f>K3/$K$7</f>
+        <f>K3/$K$8</f>
         <v>0.8</v>
       </c>
       <c r="M3" s="3">
@@ -471,7 +471,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>100</v>
       </c>
@@ -487,7 +487,7 @@
         <v>0.16666666666666663</v>
       </c>
       <c r="L4" s="2">
-        <f>K4/$K$7</f>
+        <f>K4/$K$8</f>
         <v>0.1333333333333333</v>
       </c>
       <c r="M4" s="3">
@@ -505,7 +505,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -521,7 +521,7 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="L5" s="2">
-        <f>K5/$K$7</f>
+        <f>K5/$K$8</f>
         <v>6.6666666666666693E-2</v>
       </c>
       <c r="M5" s="3">
@@ -539,7 +539,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>100</v>
       </c>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="2">
-        <f>K6/$K$7</f>
+        <f>K6/$K$8</f>
         <v>0</v>
       </c>
       <c r="M6" s="3">
@@ -573,20 +573,16 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>SUM(A3:A6)</f>
         <v>400</v>
       </c>
-      <c r="K7" s="2">
-        <f>SUM(K3:K6)</f>
-        <v>1.25</v>
-      </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>A7*0.1</f>
         <v>40</v>
@@ -595,13 +591,17 @@
         <f>MAX(B3:B6)</f>
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K8" s="2">
+        <f>SUM(K3:K6)</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -630,7 +630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" ref="A12:B15" si="0">A3</f>
         <v>100</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="2">
-        <f>K12/$K$16</f>
+        <f>K12/$K$17</f>
         <v>0</v>
       </c>
       <c r="M12" s="3">
@@ -686,7 +686,7 @@
       <c r="Q12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -728,7 +728,7 @@
         <v>0.30303030303030298</v>
       </c>
       <c r="L13" s="2">
-        <f>K13/$K$16</f>
+        <f>K13/$K$17</f>
         <v>0.30303030303030304</v>
       </c>
       <c r="M13" s="3">
@@ -742,7 +742,7 @@
       <c r="Q13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -784,7 +784,7 @@
         <v>0.33333333333333326</v>
       </c>
       <c r="L14" s="2">
-        <f>K14/$K$16</f>
+        <f>K14/$K$17</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="M14" s="3">
@@ -798,7 +798,7 @@
       <c r="Q14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -840,7 +840,7 @@
         <v>0.36363636363636365</v>
       </c>
       <c r="L15" s="2">
-        <f>K15/$K$16</f>
+        <f>K15/$K$17</f>
         <v>0.3636363636363637</v>
       </c>
       <c r="M15" s="3">
@@ -854,7 +854,7 @@
       <c r="Q15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>SUM(A12:A15)</f>
         <v>400</v>
@@ -863,14 +863,10 @@
         <f>SUM(D12:D14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="2">
-        <f>SUM(K12:K15)</f>
-        <v>0.99999999999999989</v>
-      </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f>A16*0.1</f>
         <v>40</v>
@@ -883,48 +879,14 @@
         <f>MAX(H12:H15)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K17" s="2">
+        <f>SUM(K12:K15)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>10</v>
-      </c>
-      <c r="B19" s="2">
-        <f>A23/A19</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2">
-        <f>A24/A20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>30</v>
-      </c>
-      <c r="B21" s="2">
-        <f>A25/A21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <f>SUM(A19:A22)</f>
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SolutionItems/Notes/Index Income Calculation.xlsx
+++ b/SolutionItems/Notes/Index Income Calculation.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9432"/>
   </bookViews>
   <sheets>
     <sheet name="Aggressive" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -396,25 +397,25 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="13.7109375" style="2" customWidth="1"/>
-    <col min="4" max="7" width="13.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="15" width="13.7109375" style="2" customWidth="1"/>
-    <col min="16" max="20" width="10.7109375" customWidth="1"/>
+    <col min="1" max="3" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="7" width="13.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="15" width="13.6640625" style="2" customWidth="1"/>
+    <col min="16" max="20" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -437,7 +438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>100</v>
       </c>
@@ -471,7 +472,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>100</v>
       </c>
@@ -505,7 +506,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -539,7 +540,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>100</v>
       </c>
@@ -573,7 +574,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f>SUM(A3:A6)</f>
         <v>400</v>
@@ -582,7 +583,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f>A7*0.1</f>
         <v>40</v>
@@ -596,12 +597,12 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
@@ -630,7 +631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ref="A12:B15" si="0">A3</f>
         <v>100</v>
@@ -686,7 +687,7 @@
       <c r="Q12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -742,7 +743,7 @@
       <c r="Q13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -798,7 +799,7 @@
       <c r="Q14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -854,7 +855,7 @@
       <c r="Q15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f>SUM(A12:A15)</f>
         <v>400</v>
@@ -866,7 +867,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f>A16*0.1</f>
         <v>40</v>
@@ -884,7 +885,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
